--- a/fault_data.xlsx
+++ b/fault_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="12">
   <si>
     <t>Sample</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Cause</t>
   </si>
   <si>
-    <t>Minor Fault</t>
+    <t>No Fault</t>
   </si>
   <si>
-    <t>No Fault</t>
+    <t>Minor Fault</t>
   </si>
   <si>
     <t>Major Fault</t>
@@ -43,13 +43,13 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Wear and Tear</t>
+    <t>Electrical Failure</t>
   </si>
   <si>
     <t>Overheating</t>
   </si>
   <si>
-    <t>Electrical Failure</t>
+    <t>Wear and Tear</t>
   </si>
 </sst>
 </file>
@@ -413,10 +413,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -443,9 +443,6 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
@@ -455,7 +452,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,10 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -485,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -500,9 +503,6 @@
       </c>
       <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -535,7 +535,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -543,10 +546,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,13 +557,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +571,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -579,13 +585,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -593,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -610,7 +616,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,10 +627,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,13 +641,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +655,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,7 +672,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -670,16 +688,19 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -687,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -698,7 +719,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -709,10 +730,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -720,10 +741,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -731,13 +752,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -750,16 +768,13 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -770,10 +785,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -781,10 +796,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -792,10 +810,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -803,10 +824,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -817,7 +838,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -828,7 +852,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -836,7 +863,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -847,7 +874,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -858,10 +885,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -872,10 +899,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -883,7 +907,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -899,6 +923,9 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
@@ -908,10 +935,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -919,10 +943,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -935,9 +959,6 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
@@ -949,19 +970,16 @@
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -974,16 +992,19 @@
       <c r="C47" t="s">
         <v>8</v>
       </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -994,10 +1015,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1005,7 +1023,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1019,10 +1037,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1030,10 +1045,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1046,19 +1061,19 @@
       <c r="C53" t="s">
         <v>7</v>
       </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1066,7 +1081,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1077,13 +1092,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1091,7 +1103,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1102,10 +1114,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1113,10 +1125,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1124,10 +1136,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1135,7 +1147,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1146,10 +1158,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1157,13 +1169,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1171,13 +1180,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1185,10 +1194,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1196,10 +1205,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1212,16 +1221,13 @@
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1235,10 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1249,10 +1252,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1260,10 +1260,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1274,10 +1274,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1285,10 +1282,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1299,7 +1296,10 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1307,13 +1307,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1321,10 +1318,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1332,7 +1329,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -1343,7 +1340,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -1354,10 +1351,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1365,10 +1365,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1379,10 +1379,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1390,10 +1387,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1401,10 +1401,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1412,10 +1412,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1426,7 +1426,10 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1434,10 +1437,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1445,13 +1448,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1459,7 +1462,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -1473,10 +1476,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1484,7 +1487,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -1498,10 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1509,10 +1509,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1520,7 +1520,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -1531,10 +1531,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1542,10 +1545,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1553,7 +1556,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -1562,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1572,44 +1575,41 @@
       <c r="C97" t="s">
         <v>7</v>
       </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1617,10 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/fault_data.xlsx
+++ b/fault_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="12">
   <si>
     <t>Sample</t>
   </si>
@@ -31,25 +31,25 @@
     <t>No Fault</t>
   </si>
   <si>
+    <t>Major Fault</t>
+  </si>
+  <si>
     <t>Minor Fault</t>
   </si>
   <si>
-    <t>Major Fault</t>
+    <t>Random Forest</t>
   </si>
   <si>
     <t>Neural Network</t>
   </si>
   <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <t>Electrical Failure</t>
+    <t>Wear and Tear</t>
   </si>
   <si>
     <t>Overheating</t>
   </si>
   <si>
-    <t>Wear and Tear</t>
+    <t>Electrical Failure</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,13 +474,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -499,10 +496,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,13 +532,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,10 +543,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -557,13 +557,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -571,13 +568,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -585,13 +579,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -599,13 +590,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -613,13 +601,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -627,13 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -641,13 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -658,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -669,13 +651,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -683,13 +665,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -711,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -719,10 +698,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,10 +734,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -777,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -796,7 +781,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -816,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -827,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -835,13 +820,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -849,13 +831,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -866,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -874,10 +853,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -896,10 +878,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -910,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -918,13 +903,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -943,10 +925,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -954,10 +939,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1034,10 +1022,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1045,10 +1036,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1056,13 +1050,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1095,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1161,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1180,13 +1174,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1194,10 +1185,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1205,10 +1199,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1219,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1241,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1249,10 +1246,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1293,13 +1293,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1321,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1343,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1351,13 +1348,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1379,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1387,13 +1381,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1404,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1412,10 +1403,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1423,13 +1417,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1437,10 +1428,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1448,13 +1442,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1462,13 +1453,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1479,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1490,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1498,10 +1489,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1520,10 +1514,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1531,13 +1528,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1545,10 +1539,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1556,16 +1553,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1576,7 +1570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1587,18 +1581,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1606,10 +1603,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1617,7 +1614,5203 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
+      </c>
+      <c r="C315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>7</v>
+      </c>
+      <c r="D350" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" t="s">
+        <v>7</v>
+      </c>
+      <c r="D372" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>7</v>
+      </c>
+      <c r="D390" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s">
+        <v>8</v>
+      </c>
+      <c r="D398" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>7</v>
+      </c>
+      <c r="D402" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>4</v>
+      </c>
+      <c r="C405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>8</v>
+      </c>
+      <c r="D407" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>4</v>
+      </c>
+      <c r="C409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" t="s">
+        <v>7</v>
+      </c>
+      <c r="D410" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>4</v>
+      </c>
+      <c r="C411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" t="s">
+        <v>8</v>
+      </c>
+      <c r="D412" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>4</v>
+      </c>
+      <c r="C414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>4</v>
+      </c>
+      <c r="C416" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>4</v>
+      </c>
+      <c r="C417" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>4</v>
+      </c>
+      <c r="C418" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>4</v>
+      </c>
+      <c r="C419" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>8</v>
+      </c>
+      <c r="D420" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>4</v>
+      </c>
+      <c r="C424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>8</v>
+      </c>
+      <c r="D425" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>4</v>
+      </c>
+      <c r="C429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>4</v>
+      </c>
+      <c r="C432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" t="s">
+        <v>8</v>
+      </c>
+      <c r="D433" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>7</v>
+      </c>
+      <c r="D434" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>4</v>
+      </c>
+      <c r="C437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>4</v>
+      </c>
+      <c r="C438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>4</v>
+      </c>
+      <c r="C439" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>4</v>
+      </c>
+      <c r="C440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>4</v>
+      </c>
+      <c r="C442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" t="s">
+        <v>8</v>
+      </c>
+      <c r="D443" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>4</v>
+      </c>
+      <c r="C445" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>4</v>
+      </c>
+      <c r="C446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447" t="s">
+        <v>8</v>
+      </c>
+      <c r="D447" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>4</v>
+      </c>
+      <c r="C448" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>4</v>
+      </c>
+      <c r="C450" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>4</v>
+      </c>
+      <c r="C451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>4</v>
+      </c>
+      <c r="C452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>4</v>
+      </c>
+      <c r="C453" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>6</v>
+      </c>
+      <c r="C454" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>4</v>
+      </c>
+      <c r="C455" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>4</v>
+      </c>
+      <c r="C456" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" t="s">
+        <v>8</v>
+      </c>
+      <c r="D458" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>4</v>
+      </c>
+      <c r="C459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>4</v>
+      </c>
+      <c r="C460" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>4</v>
+      </c>
+      <c r="C461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462" t="s">
+        <v>8</v>
+      </c>
+      <c r="D462" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>4</v>
+      </c>
+      <c r="C463" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>4</v>
+      </c>
+      <c r="C464" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>4</v>
+      </c>
+      <c r="C465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>4</v>
+      </c>
+      <c r="C466" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" t="s">
+        <v>8</v>
+      </c>
+      <c r="D467" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>4</v>
+      </c>
+      <c r="C468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>4</v>
+      </c>
+      <c r="C469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>4</v>
+      </c>
+      <c r="C470" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" t="s">
+        <v>8</v>
+      </c>
+      <c r="D471" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>4</v>
+      </c>
+      <c r="C472" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>4</v>
+      </c>
+      <c r="C473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>4</v>
+      </c>
+      <c r="C474" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>4</v>
+      </c>
+      <c r="C475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>6</v>
+      </c>
+      <c r="C476" t="s">
+        <v>7</v>
+      </c>
+      <c r="D476" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>4</v>
+      </c>
+      <c r="C477" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>4</v>
+      </c>
+      <c r="C478" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>4</v>
+      </c>
+      <c r="C479" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>6</v>
+      </c>
+      <c r="C480" t="s">
+        <v>7</v>
+      </c>
+      <c r="D480" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>4</v>
+      </c>
+      <c r="C481" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>6</v>
+      </c>
+      <c r="C482" t="s">
+        <v>8</v>
+      </c>
+      <c r="D482" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>4</v>
+      </c>
+      <c r="C483" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484" t="s">
+        <v>8</v>
+      </c>
+      <c r="D484" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>5</v>
+      </c>
+      <c r="C485" t="s">
+        <v>7</v>
+      </c>
+      <c r="D485" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+      <c r="C486" t="s">
+        <v>7</v>
+      </c>
+      <c r="D486" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>6</v>
+      </c>
+      <c r="C487" t="s">
+        <v>8</v>
+      </c>
+      <c r="D487" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>4</v>
+      </c>
+      <c r="C488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>4</v>
+      </c>
+      <c r="C489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>4</v>
+      </c>
+      <c r="C490" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>4</v>
+      </c>
+      <c r="C491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>5</v>
+      </c>
+      <c r="C493" t="s">
+        <v>7</v>
+      </c>
+      <c r="D493" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>4</v>
+      </c>
+      <c r="C494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>4</v>
+      </c>
+      <c r="C495" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>6</v>
+      </c>
+      <c r="C497" t="s">
+        <v>8</v>
+      </c>
+      <c r="D497" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>4</v>
+      </c>
+      <c r="C498" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>6</v>
+      </c>
+      <c r="C499" t="s">
+        <v>8</v>
+      </c>
+      <c r="D499" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>4</v>
+      </c>
+      <c r="C500" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>6</v>
+      </c>
+      <c r="C501" t="s">
+        <v>8</v>
+      </c>
+      <c r="D501" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>4</v>
+      </c>
+      <c r="C502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>6</v>
+      </c>
+      <c r="C503" t="s">
+        <v>8</v>
+      </c>
+      <c r="D503" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>6</v>
+      </c>
+      <c r="C504" t="s">
+        <v>8</v>
+      </c>
+      <c r="D504" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>6</v>
+      </c>
+      <c r="C505" t="s">
+        <v>8</v>
+      </c>
+      <c r="D505" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>5</v>
+      </c>
+      <c r="C506" t="s">
+        <v>7</v>
+      </c>
+      <c r="D506" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>4</v>
+      </c>
+      <c r="C508" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>4</v>
+      </c>
+      <c r="C509" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>4</v>
+      </c>
+      <c r="C510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>4</v>
+      </c>
+      <c r="C511" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>4</v>
+      </c>
+      <c r="C512" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>4</v>
+      </c>
+      <c r="C513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>4</v>
+      </c>
+      <c r="C514" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>4</v>
+      </c>
+      <c r="C515" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>7</v>
+      </c>
+      <c r="D517" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>4</v>
+      </c>
+      <c r="C518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>6</v>
+      </c>
+      <c r="C519" t="s">
+        <v>8</v>
+      </c>
+      <c r="D519" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>4</v>
+      </c>
+      <c r="C520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>4</v>
+      </c>
+      <c r="C521" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>6</v>
+      </c>
+      <c r="C522" t="s">
+        <v>8</v>
+      </c>
+      <c r="D522" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>4</v>
+      </c>
+      <c r="C523" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>4</v>
+      </c>
+      <c r="C524" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>6</v>
+      </c>
+      <c r="C525" t="s">
+        <v>8</v>
+      </c>
+      <c r="D525" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>4</v>
+      </c>
+      <c r="C526" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>4</v>
+      </c>
+      <c r="C527" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>4</v>
+      </c>
+      <c r="C528" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>4</v>
+      </c>
+      <c r="C529" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>4</v>
+      </c>
+      <c r="C530" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>4</v>
+      </c>
+      <c r="C531" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>4</v>
+      </c>
+      <c r="C532" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>4</v>
+      </c>
+      <c r="C533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>6</v>
+      </c>
+      <c r="C534" t="s">
+        <v>8</v>
+      </c>
+      <c r="D534" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>6</v>
+      </c>
+      <c r="C535" t="s">
+        <v>7</v>
+      </c>
+      <c r="D535" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>4</v>
+      </c>
+      <c r="C536" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>4</v>
+      </c>
+      <c r="C537" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>4</v>
+      </c>
+      <c r="C538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>4</v>
+      </c>
+      <c r="C539" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
